--- a/powerlifting/前三周反复三遍，然后完整走一遍Candito 6周计划.xlsx
+++ b/powerlifting/前三周反复三遍，然后完整走一遍Candito 6周计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\罗祎\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Plan&amp;arrange\Plan\powerlifting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30878D5-2EA1-4647-9180-78C50A4A3AFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D773D6B-A367-427C-AD76-256448F27764}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -850,8 +850,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="#,##0.###############"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="#,##0.###############"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1444,7 +1444,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1471,7 +1471,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1579,25 +1579,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1609,7 +1609,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1633,6 +1633,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1654,34 +1657,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1963,7 +1963,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1979,16 +1979,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
       <c r="I1" s="75"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -2055,11 +2055,11 @@
       <c r="N5" s="53"/>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
       <c r="K6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="67">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C15" s="68" t="str">
         <f>B12</f>
@@ -2167,7 +2167,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="67">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C16" s="68" t="str">
         <f>B12</f>
@@ -2211,7 +2211,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -2228,49 +2228,49 @@
       <c r="B23" s="73"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="82"/>
+      <c r="B24" s="83"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="83"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
       <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="74"/>
       <c r="F26" s="74"/>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="74"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2328,7 +2328,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="84"/>
@@ -2396,28 +2396,28 @@
       </c>
       <c r="C5" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B16*0.8),2.5),MROUND((开始!B16*0.8),5))</f>
-        <v>47.5</v>
+        <v>80</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="27">
         <f>C5</f>
-        <v>47.5</v>
+        <v>80</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="27">
         <f>E5</f>
-        <v>47.5</v>
+        <v>80</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I5" s="27">
         <f>G5</f>
-        <v>47.5</v>
+        <v>80</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>44</v>
@@ -2536,28 +2536,28 @@
       </c>
       <c r="C12" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.5),2.5),MROUND((开始!B15*0.5),5))</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.675),2.5),MROUND((开始!B15*0.675),5))</f>
-        <v>40</v>
+        <v>47.5</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.75),2.5),MROUND((开始!B15*0.75),5))</f>
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>47</v>
       </c>
       <c r="I12" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.775),2.5),MROUND((开始!B15*0.775),5))</f>
-        <v>47.5</v>
+        <v>55</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>44</v>
@@ -2591,7 +2591,7 @@
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="str">
         <f>开始!B21</f>
-        <v>坐姿哑铃推举</v>
+        <v>实力举</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>43</v>
@@ -2741,28 +2741,28 @@
       </c>
       <c r="C21" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.5),2.5),MROUND((开始!B15*0.5),5))</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.675),2.5),MROUND((开始!B15*0.675),5))</f>
-        <v>40</v>
+        <v>47.5</v>
       </c>
       <c r="F21" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.75),2.5),MROUND((开始!B15*0.75),5))</f>
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="H21" s="40" t="s">
         <v>47</v>
       </c>
       <c r="I21" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.775),2.5),MROUND((开始!B15*0.775),5))</f>
-        <v>47.5</v>
+        <v>55</v>
       </c>
       <c r="J21" s="40" t="s">
         <v>44</v>
@@ -2796,7 +2796,7 @@
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="str">
         <f>开始!B21</f>
-        <v>坐姿哑铃推举</v>
+        <v>实力举</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>43</v>
@@ -2946,28 +2946,28 @@
       </c>
       <c r="C30" s="27">
         <f>IF((开始!B37="kg"),MROUND((开始!B16*0.7),2.5),MROUND((开始!B16*0.7),5))</f>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="27">
         <f>C30</f>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F30" s="40" t="s">
         <v>47</v>
       </c>
       <c r="G30" s="27">
         <f>E30</f>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H30" s="40" t="s">
         <v>47</v>
       </c>
       <c r="I30" s="27">
         <f>G30</f>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J30" s="40" t="s">
         <v>47</v>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C37" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.8),2.5),MROUND((开始!B15*0.8),5))</f>
-        <v>47.5</v>
+        <v>55</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>51</v>
@@ -3126,7 +3126,7 @@
     <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="str">
         <f>开始!B21</f>
-        <v>坐姿哑铃推举</v>
+        <v>实力举</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>43</v>
@@ -3247,7 +3247,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="84"/>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="C5" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B16*0.8),2.5),MROUND((开始!B16*0.8),5))</f>
-        <v>47.5</v>
+        <v>80</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>53</v>
@@ -3328,46 +3328,46 @@
       <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -3478,21 +3478,21 @@
       </c>
       <c r="C15" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.725),2.5),MROUND((开始!B15*0.725),5))</f>
-        <v>42.5</v>
+        <v>50</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.775),2.5),MROUND((开始!B15*0.775),5))</f>
-        <v>47.5</v>
+        <v>55</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="27">
         <f>IF((开始!B12="kg"),(MROUND((开始!B15*0.8),2.5)+2.5),(MROUND((开始!B15*0.8),5)+5))</f>
-        <v>50</v>
+        <v>57.5</v>
       </c>
       <c r="H15" s="40" t="s">
         <v>58</v>
@@ -3526,7 +3526,7 @@
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="str">
         <f>开始!B21</f>
-        <v>坐姿哑铃推举</v>
+        <v>实力举</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>43</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="C24" s="27">
         <f>IF((开始!B12="kg"),(MROUND((开始!B16*0.8),2.5)+2.5),(MROUND((开始!B16*0.8),5)+5))</f>
-        <v>50</v>
+        <v>82.5</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>53</v>
@@ -3685,74 +3685,74 @@
       <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
     </row>
     <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
@@ -3863,21 +3863,21 @@
       </c>
       <c r="C36" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.725),2.5),MROUND((开始!B15*0.725),5))</f>
-        <v>42.5</v>
+        <v>50</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>46</v>
       </c>
       <c r="E36" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.775),2.5),MROUND((开始!B15*0.775),5))</f>
-        <v>47.5</v>
+        <v>55</v>
       </c>
       <c r="F36" s="40" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="27">
         <f>IF((开始!B12="kg"),(MROUND((开始!B15*0.8),2.5)+2.5),(MROUND((开始!B15*0.8),5)+5))</f>
-        <v>50</v>
+        <v>57.5</v>
       </c>
       <c r="H36" s="40" t="s">
         <v>58</v>
@@ -3911,7 +3911,7 @@
     <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="str">
         <f>开始!B21</f>
-        <v>坐姿哑铃推举</v>
+        <v>实力举</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>43</v>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="C45" s="27">
         <f>IF((开始!B12="kg"),(MROUND((开始!B15*0.8),2.5)-2.5),(MROUND((开始!B15*0.8),5)-5))</f>
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>51</v>
@@ -4095,7 +4095,7 @@
     <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="str">
         <f>开始!B21</f>
-        <v>坐姿哑铃推举</v>
+        <v>实力举</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>43</v>
@@ -4207,7 +4207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -4219,7 +4219,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="84"/>
@@ -4287,21 +4287,21 @@
       </c>
       <c r="C5" s="27">
         <f>IF((开始!B12="kg"),(MROUND((开始!B16*0.85),2.5)+2.5),(MROUND((开始!B16*0.85),5)+5))</f>
-        <v>52.5</v>
+        <v>87.5</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="27">
         <f>IF((开始!B12="kg"),(MROUND((开始!B16*0.85),2.5)+2.5),(MROUND((开始!B16*0.85),5)+5))</f>
-        <v>52.5</v>
+        <v>87.5</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="27">
         <f>IF((开始!B12="kg"),(MROUND((开始!B16*0.85),2.5)+2.5),(MROUND((开始!B16*0.85),5)+5))</f>
-        <v>52.5</v>
+        <v>87.5</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>65</v>
@@ -4404,21 +4404,21 @@
       </c>
       <c r="C11" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.85),2.5),MROUND((开始!B15*0.85),5))</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.85),2.5),MROUND((开始!B15*0.85),5))</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.85),2.5),MROUND((开始!B15*0.85),5))</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H11" s="40" t="s">
         <v>65</v>
@@ -4452,7 +4452,7 @@
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="str">
         <f>开始!B21</f>
-        <v>坐姿哑铃推举</v>
+        <v>实力举</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>43</v>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="C19" s="27">
         <f>IF((开始!B12="kg"),(MROUND(((开始!B16*0.85)+2.5),2.5)+2.5),(MROUND(((开始!B16*0.85)+5),5)+5))</f>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>65</v>
@@ -4663,21 +4663,21 @@
       </c>
       <c r="C25" s="27">
         <f>IF((开始!B12="kg"),(C11+2.5),(C11+5))</f>
-        <v>52.5</v>
+        <v>62.5</v>
       </c>
       <c r="D25" s="40" t="s">
         <v>65</v>
       </c>
       <c r="E25" s="27">
         <f>IF((开始!B12="kg"),(E11+2.5),(E11+5))</f>
-        <v>52.5</v>
+        <v>62.5</v>
       </c>
       <c r="F25" s="40" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="27">
         <f>IF((开始!B12="kg"),(G11+2.5),(G11+5))</f>
-        <v>52.5</v>
+        <v>62.5</v>
       </c>
       <c r="H25" s="40" t="s">
         <v>65</v>
@@ -4711,7 +4711,7 @@
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="str">
         <f>开始!B21</f>
-        <v>坐姿哑铃推举</v>
+        <v>实力举</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>43</v>
@@ -4793,7 +4793,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="84"/>
@@ -4861,21 +4861,21 @@
       </c>
       <c r="C5" s="27">
         <f>IF((开始!B12="kg"),(MROUND((开始!B16*0.9),2.5)-2.5),(MROUND((开始!B16*0.9),5)-5))</f>
-        <v>52.5</v>
+        <v>87.5</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B16*0.9),2.5),MROUND((开始!B16*0.9),5))</f>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>69</v>
       </c>
       <c r="G5" s="41">
         <f>IF((开始!B12="kg"),(MROUND((开始!B16*0.9),2.5)+2.5),(MROUND((开始!B16*0.9),5)+5))</f>
-        <v>57.5</v>
+        <v>92.5</v>
       </c>
       <c r="H5" s="42" t="s">
         <v>69</v>
@@ -4990,21 +4990,21 @@
       </c>
       <c r="C12" s="27">
         <f>IF((开始!B12="kg"),MROUND(((开始!B15*0.875)-5),2.5),MROUND(((开始!B15*0.875)-5),5))</f>
-        <v>47.5</v>
+        <v>57.5</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="27">
         <f>IF((开始!B12="kg"),MROUND(((开始!B15*0.9)-5),2.5),MROUND(((开始!B15*0.9)-5),5))</f>
-        <v>50</v>
+        <v>57.5</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>69</v>
       </c>
       <c r="G12" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.9),2.5),MROUND((开始!B15*0.9),5))</f>
-        <v>55</v>
+        <v>62.5</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>69</v>
@@ -5040,7 +5040,7 @@
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="str">
         <f>开始!B21</f>
-        <v>坐姿哑铃推举</v>
+        <v>实力举</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>43</v>
@@ -5190,14 +5190,14 @@
       </c>
       <c r="C21" s="27">
         <f>IF((开始!B12="kg"),(MROUND((开始!B16*0.9),2.5)+2.5),(MROUND((开始!B16*0.9),5)+5))</f>
-        <v>57.5</v>
+        <v>92.5</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B16*0.95),2.5),MROUND((开始!B16*0.95),5))</f>
-        <v>57.5</v>
+        <v>95</v>
       </c>
       <c r="F21" s="40" t="s">
         <v>70</v>
@@ -5320,21 +5320,21 @@
       </c>
       <c r="C28" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.875),2.5),MROUND((开始!B15*0.875),5))</f>
-        <v>52.5</v>
+        <v>62.5</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.9),2.5),MROUND((开始!B15*0.9),5))</f>
-        <v>55</v>
+        <v>62.5</v>
       </c>
       <c r="F28" s="40" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.95),2.5),MROUND((开始!B15*0.95),5))</f>
-        <v>57.5</v>
+        <v>67.5</v>
       </c>
       <c r="H28" s="40" t="s">
         <v>70</v>
@@ -5370,7 +5370,7 @@
     <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="str">
         <f>开始!B21</f>
-        <v>坐姿哑铃推举</v>
+        <v>实力举</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>43</v>
@@ -5490,7 +5490,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>72</v>
       </c>
       <c r="B1" s="84"/>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="C5" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B16*0.975),2.5),MROUND((开始!B16*0.975),5))</f>
-        <v>57.5</v>
+        <v>97.5</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>73</v>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="C12" s="27">
         <f>IF((开始!B12="kg"),MROUND((开始!B15*0.975),2.5),MROUND((开始!B15*0.975),5))</f>
-        <v>57.5</v>
+        <v>67.5</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>73</v>
@@ -5726,7 +5726,7 @@
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="str">
         <f>开始!B21</f>
-        <v>坐姿哑铃推举</v>
+        <v>实力举</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>43</v>
@@ -5918,6 +5918,7 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5926,7 +5927,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5939,7 +5940,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="84"/>
@@ -5953,72 +5954,72 @@
       <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="89"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
     </row>
@@ -6042,14 +6043,14 @@
       </c>
       <c r="B11" s="11">
         <f>开始!B15</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C11" s="12">
         <v>140</v>
       </c>
       <c r="D11" s="13">
         <f>C11-B11</f>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E11" s="14"/>
     </row>
@@ -6059,14 +6060,14 @@
       </c>
       <c r="B12" s="11">
         <f>开始!B16</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C12" s="12">
         <v>215</v>
       </c>
       <c r="D12" s="13">
         <f>C12-B12</f>
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="E12" s="15"/>
     </row>
